--- a/Results/attack success mechanism/restricted/numeral_analysis.xlsx
+++ b/Results/attack success mechanism/restricted/numeral_analysis.xlsx
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -543,7 +543,7 @@
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="12" width="18.140625" customWidth="1"/>
   </cols>
